--- a/data/trans_camb/P07_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P07_R2-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.1255130759130418</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.7329292627563433</v>
+        <v>-0.7329292627563655</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.9155562213621904</v>
@@ -664,7 +664,7 @@
         <v>2.275660087111864</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.3551624805518516</v>
+        <v>-0.3551624805518738</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.37871169864878</v>
+        <v>-2.628511155869738</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.042680579432137</v>
+        <v>-2.114619070049949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.270938456524174</v>
+        <v>-4.929756685873038</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.9827435064518</v>
+        <v>-2.415724035449891</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.082374907154249</v>
+        <v>1.920876542640251</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.732080633185863</v>
+        <v>-5.037602628786118</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.732400020999499</v>
+        <v>-1.69848549624994</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5559525937289774</v>
+        <v>0.5445460743654746</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.207016014068353</v>
+        <v>-3.543089668581206</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.9007960623025</v>
+        <v>1.984255122672803</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.407757004193286</v>
+        <v>2.423455097652894</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.844604420131109</v>
+        <v>1.98646579832303</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.307998530742787</v>
+        <v>4.082229265226587</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.162245815975328</v>
+        <v>7.22058664166433</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.059684739571098</v>
+        <v>3.944687237537267</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.219967313282173</v>
+        <v>2.195502410613734</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.977153870981065</v>
+        <v>3.994859374092431</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.226344770159229</v>
+        <v>2.173788323974486</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.001292216504943592</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.007545853556692843</v>
+        <v>-0.007545853556693072</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.009812369822289998</v>
@@ -769,7 +769,7 @@
         <v>0.02388616876514118</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.003727916571351581</v>
+        <v>-0.003727916571351814</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0243342405730897</v>
+        <v>-0.026830222199665</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.02077739865338933</v>
+        <v>-0.02154125201510184</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05384209184461951</v>
+        <v>-0.05056522892540737</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02099694444554349</v>
+        <v>-0.02566199000590039</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02220299073006869</v>
+        <v>0.02022953310317819</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06110545652793321</v>
+        <v>-0.05420270903818503</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01806791889265338</v>
+        <v>-0.0177897581611137</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.005759568373332761</v>
+        <v>0.005754561673342016</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.03328027798985047</v>
+        <v>-0.03693177483175835</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.01994602030696125</v>
+        <v>0.02066911826733933</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02502123618613286</v>
+        <v>0.02522456139540954</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.01906735735149427</v>
+        <v>0.02068217456687213</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.04763643810496029</v>
+        <v>0.0445730563236798</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0790041284858453</v>
+        <v>0.07963296155854785</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04427520713626003</v>
+        <v>0.04282098634127855</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02355405336773526</v>
+        <v>0.02341591332861663</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04232939160225232</v>
+        <v>0.04258448462442913</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.02348372086104631</v>
+        <v>0.02294096262814026</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.1323136718997753</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.101557901207718</v>
+        <v>-2.101557901207696</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.620574948063303</v>
@@ -869,7 +869,7 @@
         <v>5.174563653654762</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.586789876462952</v>
+        <v>7.586789876462941</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3220513280462689</v>
@@ -878,7 +878,7 @@
         <v>2.374263145740863</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.458444242743663</v>
+        <v>2.458444242743674</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.157010694427345</v>
+        <v>-3.99226002908591</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.988504806270535</v>
+        <v>-2.623840224495949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.82914873952248</v>
+        <v>-5.648012679419335</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.326812833980481</v>
+        <v>-0.9620533767240292</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.785575719195695</v>
+        <v>1.822186660860121</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.564075325737449</v>
+        <v>4.438180728224792</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.916553859597071</v>
+        <v>-2.002594725630664</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3713924127426015</v>
+        <v>0.436868983650802</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2513781510986886</v>
+        <v>0.253909993055266</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5977900244124339</v>
+        <v>0.9007075025866254</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.535278670357532</v>
+        <v>2.083798585025147</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5951638932463801</v>
+        <v>0.7466479549007865</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.218831015156689</v>
+        <v>5.920058720395919</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.580734108688061</v>
+        <v>8.734200780698133</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.86864678782461</v>
+        <v>10.79720445837958</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.33200501478301</v>
+        <v>2.430011840309031</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.2081178298212</v>
+        <v>4.549949631208096</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.501197648324206</v>
+        <v>4.793076980800741</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.001383311864730309</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.02197134987955315</v>
+        <v>-0.02197134987955291</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.02978506467174556</v>
@@ -974,7 +974,7 @@
         <v>0.05881332002584954</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.086230324108225</v>
+        <v>0.08623032410822487</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.003495762108454031</v>
@@ -983,7 +983,7 @@
         <v>0.02577185193034615</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.02668561027730196</v>
+        <v>0.02668561027730208</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04284520845358969</v>
+        <v>-0.04135966744091858</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02061137919945143</v>
+        <v>-0.02709371708198853</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.06131931438969627</v>
+        <v>-0.0586644210184657</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01478690023709462</v>
+        <v>-0.01081837326699263</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01976892445773853</v>
+        <v>0.02024899558611992</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05071462639744388</v>
+        <v>0.04923093339398324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02065969868228701</v>
+        <v>-0.02151067029631308</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.003941377028585075</v>
+        <v>0.004682297976934749</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.002710072871124983</v>
+        <v>0.002715102314792867</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.006290688288454091</v>
+        <v>0.0094452545685487</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.02680112383065506</v>
+        <v>0.02204093443311315</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.006223726076412323</v>
+        <v>0.007766772056857741</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.07224378749001892</v>
+        <v>0.06933344873956034</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1001681236220569</v>
+        <v>0.1025288145447744</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1278770720361183</v>
+        <v>0.1251223391064474</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0256900292514944</v>
+        <v>0.02678033148863514</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04612761464142168</v>
+        <v>0.05027512478762361</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.04953075755825152</v>
+        <v>0.0529327329034413</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.932820555376101</v>
+        <v>-2.863419869543278</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2912725721680446</v>
+        <v>-0.2382660435224437</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9786745933362659</v>
+        <v>-0.5039520840724532</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.692209300678177</v>
+        <v>-3.207014165091957</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.483353305655015</v>
+        <v>3.330047428472459</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.532160097969508</v>
+        <v>3.200617316570679</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.004472442735872</v>
+        <v>-2.078239807865043</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.446721408311761</v>
+        <v>2.640630639059504</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.449547057284655</v>
+        <v>2.694788168714564</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.675454727956794</v>
+        <v>3.831199482482048</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.674830014930377</v>
+        <v>6.122956157166913</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.556976149301207</v>
+        <v>5.493242656906862</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.404489705158529</v>
+        <v>4.995625814298898</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.92958588424598</v>
+        <v>10.67031936546502</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.37487188867937</v>
+        <v>10.35117381836595</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.445839806657768</v>
+        <v>3.437551558312853</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.538533612648718</v>
+        <v>7.439347770934542</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.259401955630948</v>
+        <v>7.418554957142717</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.03189825160069829</v>
+        <v>-0.03144000248723192</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.003132266411086401</v>
+        <v>-0.002574380655066909</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.01099306510206334</v>
+        <v>-0.005065758528450166</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04376754636052858</v>
+        <v>-0.03801967735254742</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0410806595719766</v>
+        <v>0.039735303795259</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04155359856406381</v>
+        <v>0.03870841002891937</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02290063145045657</v>
+        <v>-0.02377850302314777</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.02808386835684139</v>
+        <v>0.02992869433544881</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.02785645163922609</v>
+        <v>0.0306824861781334</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.04132681107038411</v>
+        <v>0.0436884251681624</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.06397012166167512</v>
+        <v>0.06939914335255816</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.0622051303832054</v>
+        <v>0.06211243347977949</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.05443813858928027</v>
+        <v>0.06181731951698646</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1365651432719561</v>
+        <v>0.1346426676045401</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1300540028059171</v>
+        <v>0.128827360136939</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04036528126302105</v>
+        <v>0.04101146591713362</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.08873107907647117</v>
+        <v>0.08736685633693045</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.08562746950880629</v>
+        <v>0.08764622077508649</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>1.561144984117646</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.363307313435426</v>
+        <v>3.363307313435437</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.956415462051606</v>
+        <v>-5.676482386871337</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.159326986159751</v>
+        <v>-9.711377220892002</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.264662391354173</v>
+        <v>-6.955489168842073</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.9962759184738326</v>
+        <v>-1.031972642598902</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.231258024366248</v>
+        <v>3.034927638287969</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.340871165201149</v>
+        <v>5.660652221561264</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.138732316855547</v>
+        <v>-2.55754125949441</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.578683092962951</v>
+        <v>-1.703566291015156</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1230665873248353</v>
+        <v>0.1592711236310561</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.779717116987883</v>
+        <v>2.90115763277195</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2596248358599482</v>
+        <v>-0.7908351891892681</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.158780494664533</v>
+        <v>1.344248548209346</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.390163991862293</v>
+        <v>9.806886880197743</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.3228326707977</v>
+        <v>13.36319444001093</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.02497749323757</v>
+        <v>14.68987645875105</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.790223386964815</v>
+        <v>4.79683923322486</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.277189483911608</v>
+        <v>5.076143236322351</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.548978715084257</v>
+        <v>6.304516679468221</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.01964806112168762</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.04232948786800083</v>
+        <v>0.04232948786800097</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.06736425194070689</v>
+        <v>-0.06376885190538949</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1037342552640948</v>
+        <v>-0.1084066427684468</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.08216110073255399</v>
+        <v>-0.0783234544789564</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.0130564198069121</v>
+        <v>-0.01376902711603754</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04241003377052079</v>
+        <v>0.04077154071914067</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07171084684091752</v>
+        <v>0.07564717251128877</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02632775813345049</v>
+        <v>-0.03192360612159393</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02008879737529243</v>
+        <v>-0.02056934103384242</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.001240912965297709</v>
+        <v>0.00159486321564438</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03271297750842152</v>
+        <v>0.03413274712661787</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.00318719160404791</v>
+        <v>-0.009071114726266446</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.01341893734777368</v>
+        <v>0.01564672632923077</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1341668006665405</v>
+        <v>0.142102790180315</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1911895466300326</v>
+        <v>0.1947779154990374</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2067849418920737</v>
+        <v>0.2180872990628657</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06185377041435605</v>
+        <v>0.06153724427988346</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.06812912264911689</v>
+        <v>0.0658139838741844</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.08390675647871473</v>
+        <v>0.08146615569324253</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>5.163327118569927</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>7.221383845836781</v>
+        <v>7.221383845836793</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.38155076635237</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.494132068068991</v>
+        <v>-1.865402892165235</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.886996400969603</v>
+        <v>-1.613439247519309</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.555296071700491</v>
+        <v>-3.241414064502969</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.42067569590577</v>
+        <v>-3.825678414997613</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.329960857684248</v>
+        <v>-1.283735528435131</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9595027248983892</v>
+        <v>1.635411119348654</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.9141381044142263</v>
+        <v>-1.134641421677755</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5567215530144624</v>
+        <v>0.07514758480280642</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.8961237228588409</v>
+        <v>1.08835239247966</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.40391737722794</v>
+        <v>10.05213329755546</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.80190383347515</v>
+        <v>10.23365501149583</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.485685125740443</v>
+        <v>8.327426110576759</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.920141223780991</v>
+        <v>9.220779161604796</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.35400858440566</v>
+        <v>12.05140067483726</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.85710736007554</v>
+        <v>13.07089332197965</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.130262020898364</v>
+        <v>7.937500739237969</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.250701860725135</v>
+        <v>9.213425620420084</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.05887190374226</v>
+        <v>8.814776873543257</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.0863525711221689</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1207719456521312</v>
+        <v>0.1207719456521314</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.05175105727275283</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01949991255542883</v>
+        <v>-0.0246061042751411</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02545491419407603</v>
+        <v>-0.0215909708914605</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.04730531438617189</v>
+        <v>-0.04405324508192981</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.07008325725895605</v>
+        <v>-0.06162918090756565</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03674116538591523</v>
+        <v>-0.01975099122032495</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01359436344826772</v>
+        <v>0.0253322417302518</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01434811923874066</v>
+        <v>-0.01688472520074897</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.007555219826026301</v>
+        <v>0.0006106689236967707</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.01299000171504389</v>
+        <v>0.01579872119602203</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1555148046693192</v>
+        <v>0.1500873694204545</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1565358215072601</v>
+        <v>0.1506312408423844</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1112666873828444</v>
+        <v>0.1215571103137588</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1593939919120732</v>
+        <v>0.1628572610796009</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1991958907984576</v>
+        <v>0.2123353558483783</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2319423663984858</v>
+        <v>0.2372324783534892</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1319922251126481</v>
+        <v>0.1264310584231023</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1463681426329626</v>
+        <v>0.1458792148168926</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1453146665384198</v>
+        <v>0.1403837244052125</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>7.802456712410521</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>10.2202646134925</v>
+        <v>10.22026461349251</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>10.49695805361246</v>
@@ -1725,7 +1725,7 @@
         <v>11.96027297425806</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>17.53914994160621</v>
+        <v>17.53914994160619</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.159544192787525</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.130078818806505</v>
+        <v>-7.875118798960077</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.2006127645234656</v>
+        <v>0.2261035401182435</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3.908002270952943</v>
+        <v>3.498104637277593</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.077756936800457</v>
+        <v>3.133984335783714</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>4.29406268156299</v>
+        <v>3.998261789712789</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>11.95255411367349</v>
+        <v>11.7334287036713</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.104251432318485</v>
+        <v>0.2625842535390424</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>5.414009934997767</v>
+        <v>4.390373392886912</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>10.04321460991446</v>
+        <v>9.998949189865119</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.185419178966225</v>
+        <v>8.221039015885271</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>15.74991779680575</v>
+        <v>14.93421121833578</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17.01246559608656</v>
+        <v>16.52459597522213</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17.43430707217312</v>
+        <v>17.39745623154315</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>18.63589061687443</v>
+        <v>19.20411629275678</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>23.62917165120263</v>
+        <v>23.91250189757712</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>11.72455940517484</v>
+        <v>11.22065368282134</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>15.79230708215958</v>
+        <v>15.50079244460325</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>19.39341999736905</v>
+        <v>19.79158298350862</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.1258379025754504</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.1648322714411652</v>
+        <v>0.1648322714411654</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2528798676407177</v>
@@ -1830,7 +1830,7 @@
         <v>0.2881322599585281</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.42253173663371</v>
+        <v>0.4225317366337095</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1209058193653984</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1074822684533918</v>
+        <v>-0.1181218958635357</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.003319150755937027</v>
+        <v>0.004092305486585154</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.05797101552305086</v>
+        <v>0.04855179052027878</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.0612810059458133</v>
+        <v>0.06542788801494785</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.09196631043375769</v>
+        <v>0.08581801285617682</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2579943141920403</v>
+        <v>0.253251467189984</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02098454119489562</v>
+        <v>0.004259182355454488</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1001818620614117</v>
+        <v>0.08072484324424278</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.184878638795011</v>
+        <v>0.1856393168354442</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1530184638981178</v>
+        <v>0.1432142254574555</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2773719722623837</v>
+        <v>0.2576849419187106</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3005757891259891</v>
+        <v>0.2843592967391083</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4539904504148569</v>
+        <v>0.4640611628552109</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.488464218599202</v>
+        <v>0.501090595285314</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6347372953297258</v>
+        <v>0.6425095108827777</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2466572880258795</v>
+        <v>0.2314426633387683</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3291337456894052</v>
+        <v>0.3277985198454742</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.4047538234066618</v>
+        <v>0.4107808356434468</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>9.975708329352495</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>10.5651887887636</v>
+        <v>10.56518878876359</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.438556408046194</v>
@@ -1948,7 +1948,7 @@
         <v>7.962478207492368</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>10.00534304314986</v>
+        <v>10.00534304314984</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-11.35645792306049</v>
+        <v>-11.00906437377475</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.795333600136881</v>
+        <v>0.7862781470340587</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.39286337393956</v>
+        <v>2.459132056923923</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-5.431910729760003</v>
+        <v>-4.262000212129336</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.366350301767321</v>
+        <v>-1.062158087845386</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.048541616791768</v>
+        <v>2.765362474123604</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-5.0058069532823</v>
+        <v>-4.770723965210604</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.133988513906536</v>
+        <v>1.693210111735157</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>5.53785885530329</v>
+        <v>4.45088895413385</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>7.581731444411664</v>
+        <v>7.891099395969359</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>19.57548908790466</v>
+        <v>19.23301290008804</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>19.41255398294914</v>
+        <v>18.23584092951243</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8.995411648041053</v>
+        <v>9.719561155384545</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>14.0477991674512</v>
+        <v>14.20858602146574</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>15.80847631755802</v>
+        <v>15.67650648804286</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.771746433369865</v>
+        <v>6.806410053296736</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>13.95090293604932</v>
+        <v>13.26824185082941</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>14.94537591416105</v>
+        <v>15.28529079289251</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.2210489309678973</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2341110636082316</v>
+        <v>0.2341110636082313</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.08052084291428054</v>
@@ -2053,7 +2053,7 @@
         <v>0.2210934671889863</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2778175244164177</v>
+        <v>0.2778175244164174</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2398728250294306</v>
+        <v>-0.2215983346045808</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.03229423081247426</v>
+        <v>0.01544517047496908</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.04642919950547885</v>
+        <v>0.04760455310854356</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1553277941774771</v>
+        <v>-0.1235009134491735</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.03892369617025494</v>
+        <v>-0.0365432322301743</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0859966691484495</v>
+        <v>0.07742850730490579</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1278688937007572</v>
+        <v>-0.1241570212348701</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.05231431840723973</v>
+        <v>0.0448660863875677</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1372088873673512</v>
+        <v>0.1179495808348212</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1870702748315017</v>
+        <v>0.1974921756148415</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4915902748459929</v>
+        <v>0.4856844984597581</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4950381157126532</v>
+        <v>0.4571915801843967</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3471503883437258</v>
+        <v>0.3588977248577765</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5328453429660052</v>
+        <v>0.5131048669334284</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.6263835807747383</v>
+        <v>0.6014452709624295</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.204508960514406</v>
+        <v>0.200264530750116</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4252411980001594</v>
+        <v>0.3963782463427103</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4526063447409266</v>
+        <v>0.4777507425385234</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-0.05175881405700133</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-1.70982368008481</v>
+        <v>-1.709823680084799</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>1.949458280009364</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.869942251608868</v>
+        <v>-2.947186857841732</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.857358421103167</v>
+        <v>-1.750774893379327</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.595022482757679</v>
+        <v>-3.447127029763122</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.4673868083883883</v>
+        <v>-0.2695084010165609</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.605083071449401</v>
+        <v>2.796015866045442</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2.368337736629527</v>
+        <v>2.391808185619827</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.9778773219415526</v>
+        <v>-1.104235459713679</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.995222602361803</v>
+        <v>0.9175618182152133</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.04454520230127218</v>
+        <v>-0.05533964967330347</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.7166099978352154</v>
+        <v>0.7569430966741734</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.718929588290974</v>
+        <v>1.701230864888204</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.03072603210291169</v>
+        <v>0.135019846331508</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.966693163806986</v>
+        <v>4.059595905892797</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>7.011605010673041</v>
+        <v>7.007614960144499</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.441635638579809</v>
+        <v>6.219359263563097</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.981579169836897</v>
+        <v>1.776003149253997</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.888597903509852</v>
+        <v>3.764027985446765</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.665229559971237</v>
+        <v>2.716932707653899</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.0006135748042023734</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.02026910293140127</v>
+        <v>-0.02026910293140113</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.02731762621855413</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.03394748687907005</v>
+        <v>-0.03464539343316076</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.02189533509163721</v>
+        <v>-0.02063031039485649</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.04226811675384717</v>
+        <v>-0.040783488121743</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.006433875694953154</v>
+        <v>-0.003760649228553686</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.0359366227709917</v>
+        <v>0.03839084221396039</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03233393647727799</v>
+        <v>0.03288969202502806</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.01249959216067354</v>
+        <v>-0.01405044384841364</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.01275237763029156</v>
+        <v>0.01161686261651099</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.0005688828410350891</v>
+        <v>-0.0004615158580777185</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.008562620211033354</v>
+        <v>0.00901433955645904</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.02055472522155873</v>
+        <v>0.02048460774066576</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.0004881033499601645</v>
+        <v>0.001465743515710312</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.05628314861550753</v>
+        <v>0.05794584680923093</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.0988481293855614</v>
+        <v>0.09914486137131832</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.0919103776955672</v>
+        <v>0.08880190607286811</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.02570735650646159</v>
+        <v>0.02286806916911856</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.05040208451051723</v>
+        <v>0.0485052685496202</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.03468538616029625</v>
+        <v>0.03546582058937867</v>
       </c>
     </row>
     <row r="52">
